--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_storagemod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.016301436413073928</t>
-  </si>
-  <si>
-    <t>0.025393131026752412</t>
-  </si>
-  <si>
-    <t>0.038919026385930734</t>
-  </si>
-  <si>
-    <t>0.06162570634875652</t>
-  </si>
-  <si>
-    <t>0.09754524371602967</t>
-  </si>
-  <si>
-    <t>0.15438375957239253</t>
-  </si>
-  <si>
-    <t>0.2403704485623016</t>
-  </si>
-  <si>
-    <t>0.37421534867263734</t>
-  </si>
-  <si>
-    <t>0.5920673206361096</t>
-  </si>
-  <si>
-    <t>0.9217963336165929</t>
-  </si>
-  <si>
-    <t>1.4581908911794157</t>
-  </si>
-  <si>
-    <t>2.2318065318790623</t>
-  </si>
-  <si>
-    <t>3.5885009335246516</t>
-  </si>
-  <si>
-    <t>5.58252971600004</t>
-  </si>
-  <si>
-    <t>9.119505333901953</t>
-  </si>
-  <si>
-    <t>13.952181413622437</t>
-  </si>
-  <si>
-    <t>22.05905973437094</t>
-  </si>
-  <si>
-    <t>34.30221823995551</t>
-  </si>
-  <si>
-    <t>55.1050352522048</t>
-  </si>
-  <si>
-    <t>84.27345261902076</t>
-  </si>
-  <si>
-    <t>128.89759185430614</t>
-  </si>
-  <si>
-    <t>203.65540441230397</t>
-  </si>
-  <si>
-    <t>327.1509191912387</t>
-  </si>
-  <si>
-    <t>500.20985912689775</t>
-  </si>
-  <si>
-    <t>10.959029705837738</t>
-  </si>
-  <si>
-    <t>21.794762552536213</t>
-  </si>
-  <si>
-    <t>44.45576059560006</t>
-  </si>
-  <si>
-    <t>89.62495143437795</t>
-  </si>
-  <si>
-    <t>164.56205544535106</t>
-  </si>
-  <si>
-    <t>293.45596120257204</t>
-  </si>
-  <si>
-    <t>514.2137042254536</t>
-  </si>
-  <si>
-    <t>880.2262741810462</t>
-  </si>
-  <si>
-    <t>1437.9538557315468</t>
-  </si>
-  <si>
-    <t>2496.23603629145</t>
-  </si>
-  <si>
-    <t>3909.9051049809245</t>
-  </si>
-  <si>
-    <t>5551.580749955424</t>
-  </si>
-  <si>
-    <t>8644.894991390229</t>
-  </si>
-  <si>
-    <t>12193.666836293287</t>
-  </si>
-  <si>
-    <t>16808.46540980502</t>
-  </si>
-  <si>
-    <t>21533.68613196787</t>
-  </si>
-  <si>
-    <t>29299.942550482643</t>
-  </si>
-  <si>
-    <t>37033.86726041824</t>
-  </si>
-  <si>
-    <t>45703.48655538571</t>
-  </si>
-  <si>
-    <t>52829.866799113355</t>
-  </si>
-  <si>
-    <t>63098.6025127596</t>
-  </si>
-  <si>
-    <t>71977.74573227469</t>
-  </si>
-  <si>
-    <t>87932.64993068742</t>
-  </si>
-  <si>
-    <t>95987.07822093584</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.01630143641307393</v>
+      </c>
+      <c r="B2">
+        <v>10.95902970583774</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02539313102675241</v>
+      </c>
+      <c r="B3">
+        <v>21.79476255253621</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.03891902638593073</v>
+      </c>
+      <c r="B4">
+        <v>44.45576059560006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.06162570634875652</v>
+      </c>
+      <c r="B5">
+        <v>89.62495143437795</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.09754524371602967</v>
+      </c>
+      <c r="B6">
+        <v>164.5620554453511</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1543837595723925</v>
+      </c>
+      <c r="B7">
+        <v>293.455961202572</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2403704485623016</v>
+      </c>
+      <c r="B8">
+        <v>514.2137042254536</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3742153486726373</v>
+      </c>
+      <c r="B9">
+        <v>880.2262741810462</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5920673206361096</v>
+      </c>
+      <c r="B10">
+        <v>1437.953855731547</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.9217963336165929</v>
+      </c>
+      <c r="B11">
+        <v>2496.23603629145</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.458190891179416</v>
+      </c>
+      <c r="B12">
+        <v>3909.905104980925</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.231806531879062</v>
+      </c>
+      <c r="B13">
+        <v>5551.580749955424</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.588500933524652</v>
+      </c>
+      <c r="B14">
+        <v>8644.894991390229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.58252971600004</v>
+      </c>
+      <c r="B15">
+        <v>12193.66683629329</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>9.119505333901953</v>
+      </c>
+      <c r="B16">
+        <v>16808.46540980502</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.95218141362244</v>
+      </c>
+      <c r="B17">
+        <v>21533.68613196787</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>22.05905973437094</v>
+      </c>
+      <c r="B18">
+        <v>29299.94255048264</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>34.30221823995551</v>
+      </c>
+      <c r="B19">
+        <v>37033.86726041824</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>55.1050352522048</v>
+      </c>
+      <c r="B20">
+        <v>45703.48655538571</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>84.27345261902076</v>
+      </c>
+      <c r="B21">
+        <v>52829.86679911336</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>128.8975918543061</v>
+      </c>
+      <c r="B22">
+        <v>63098.6025127596</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>203.655404412304</v>
+      </c>
+      <c r="B23">
+        <v>71977.74573227469</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>327.1509191912387</v>
+      </c>
+      <c r="B24">
+        <v>87932.64993068742</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>500.2098591268978</v>
+      </c>
+      <c r="B25">
+        <v>95987.07822093584</v>
       </c>
     </row>
   </sheetData>
